--- a/data/input/absenteeism_data_37.xlsx
+++ b/data/input/absenteeism_data_37.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88800</v>
+        <v>14160</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Isis Campos</t>
+          <t>Giovanna Ramos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45101</v>
+        <v>45082</v>
       </c>
       <c r="G2" t="n">
-        <v>7667.65</v>
+        <v>8361.549999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8943</v>
+        <v>21866</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Clara da Cruz</t>
+          <t>Carlos Eduardo Oliveira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,249 +519,249 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45099</v>
       </c>
       <c r="G3" t="n">
-        <v>6125.94</v>
+        <v>7328.73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>46077</v>
+        <v>95415</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Camila Monteiro</t>
+          <t>Isadora Caldeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45078</v>
+        <v>45098</v>
       </c>
       <c r="G4" t="n">
-        <v>6080.74</v>
+        <v>6277.51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>85125</v>
+        <v>80814</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kevin Ribeiro</t>
+          <t>João Vitor Gonçalves</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45084</v>
+        <v>45096</v>
       </c>
       <c r="G5" t="n">
-        <v>11306.05</v>
+        <v>2572.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98225</v>
+        <v>29884</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Bruno Araújo</t>
+          <t>Ana Clara da Mota</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45100</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>3611.63</v>
+        <v>4379.14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>52075</v>
+        <v>19759</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Sophia Martins</t>
+          <t>Clara Araújo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45100</v>
+        <v>45087</v>
       </c>
       <c r="G7" t="n">
-        <v>4642.52</v>
+        <v>6327.15</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>28876</v>
+        <v>13815</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maria Eduarda Rodrigues</t>
+          <t>Henrique Ramos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45101</v>
+        <v>45094</v>
       </c>
       <c r="G8" t="n">
-        <v>6050</v>
+        <v>5370.09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>7750</v>
+        <v>3817</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Rafaela Farias</t>
+          <t>Amanda da Mota</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45082</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>10790.95</v>
+        <v>4750.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>69536</v>
+        <v>87123</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Kamilly Fernandes</t>
+          <t>Ana Luiza Cardoso</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45084</v>
+        <v>45102</v>
       </c>
       <c r="G10" t="n">
-        <v>8032.88</v>
+        <v>10552.8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>44244</v>
+        <v>13887</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Olivia Pereira</t>
+          <t>Anthony Gomes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45093</v>
       </c>
       <c r="G11" t="n">
-        <v>10376.44</v>
+        <v>5617.56</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_37.xlsx
+++ b/data/input/absenteeism_data_37.xlsx
@@ -476,40 +476,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14160</v>
+        <v>73295</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Giovanna Ramos</t>
+          <t>Marcela Ribeiro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45082</v>
+        <v>45092</v>
       </c>
       <c r="G2" t="n">
-        <v>8361.549999999999</v>
+        <v>8329.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>21866</v>
+        <v>64619</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carlos Eduardo Oliveira</t>
+          <t>Pedro Miguel Barbosa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -519,31 +519,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45099</v>
+        <v>45106</v>
       </c>
       <c r="G3" t="n">
-        <v>7328.73</v>
+        <v>11794.32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95415</v>
+        <v>4841</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isadora Caldeira</t>
+          <t>Laís Nunes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45098</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>6277.51</v>
+        <v>3806.97</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>80814</v>
+        <v>68436</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Vitor Gonçalves</t>
+          <t>Gabriel Moreira</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,27 +581,27 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45096</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>2572.34</v>
+        <v>6584.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>29884</v>
+        <v>90030</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ana Clara da Mota</t>
+          <t>Isabel Dias</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -610,51 +610,51 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45102</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>4379.14</v>
+        <v>6683.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19759</v>
+        <v>33337</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Clara Araújo</t>
+          <t>Ana Júlia Alves</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45087</v>
+        <v>45095</v>
       </c>
       <c r="G7" t="n">
-        <v>6327.15</v>
+        <v>8170.83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>13815</v>
+        <v>53328</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Henrique Ramos</t>
+          <t>Sra. Sophie Campos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,31 +664,31 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45081</v>
       </c>
       <c r="G8" t="n">
-        <v>5370.09</v>
+        <v>7100.06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3817</v>
+        <v>60366</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Amanda da Mota</t>
+          <t>Laís Silva</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45106</v>
+        <v>45092</v>
       </c>
       <c r="G9" t="n">
-        <v>4750.8</v>
+        <v>10939.9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>87123</v>
+        <v>21331</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Luiza Cardoso</t>
+          <t>Vitor Silveira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -722,46 +722,46 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45102</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>10552.8</v>
+        <v>11265.86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>13887</v>
+        <v>71072</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Anthony Gomes</t>
+          <t>Raul Almeida</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45093</v>
+        <v>45104</v>
       </c>
       <c r="G11" t="n">
-        <v>5617.56</v>
+        <v>12198.64</v>
       </c>
     </row>
   </sheetData>
